--- a/Python Algorithms/Test/PD-Critical.xlsx
+++ b/Python Algorithms/Test/PD-Critical.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,22 +420,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.004110373639123879</v>
+        <v>0.02744798902934886</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.7473931451345412</v>
+        <v>0.5159205722746036</v>
       </c>
       <c r="F2">
-        <v>0.009029865264892578</v>
+        <v>0.0030670166015625</v>
       </c>
       <c r="G2">
-        <v>0.8276670375186932</v>
+        <v>0.9943514917398668</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -443,22 +443,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>0.0162580785425998</v>
+        <v>0.05418734605623229</v>
       </c>
       <c r="D3">
         <v>0.1</v>
       </c>
       <c r="E3">
-        <v>0.0008445831515411356</v>
+        <v>0.0443387513449028</v>
       </c>
       <c r="F3">
-        <v>0.01135778427124023</v>
+        <v>0.006764888763427734</v>
       </c>
       <c r="G3">
-        <v>0.8057294595619584</v>
+        <v>0.9794267526079573</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -466,22 +466,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>750</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>0.01643410121536109</v>
+        <v>0.05663861903995152</v>
       </c>
       <c r="D4">
         <v>0.01</v>
       </c>
       <c r="E4">
-        <v>0.009973054770231287</v>
+        <v>0.001107503260070882</v>
       </c>
       <c r="F4">
-        <v>0.1736929416656494</v>
+        <v>0.007762908935546875</v>
       </c>
       <c r="G4">
-        <v>0.3825648582507567</v>
+        <v>0.975986304295077</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,22 +489,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1071</v>
+        <v>1885</v>
       </c>
       <c r="C5">
-        <v>0.01628726164077959</v>
+        <v>0.05675808151671367</v>
       </c>
       <c r="D5">
         <v>0.001</v>
       </c>
       <c r="E5">
-        <v>0.0009488914309780556</v>
+        <v>0.0009993661110823124</v>
       </c>
       <c r="F5">
-        <v>0.2431070804595947</v>
+        <v>1.387660026550293</v>
       </c>
       <c r="G5">
-        <v>0.3642313330535326</v>
+        <v>0.6270688390500064</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,22 +512,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1080</v>
+        <v>10665</v>
       </c>
       <c r="C6">
-        <v>0.01627338969040252</v>
+        <v>0.05670706331823926</v>
       </c>
       <c r="D6">
         <v>0.0001</v>
       </c>
       <c r="E6">
-        <v>9.637775138283498E-05</v>
+        <v>9.959672197821181E-05</v>
       </c>
       <c r="F6">
-        <v>0.2454938888549805</v>
+        <v>7.726545810699463</v>
       </c>
       <c r="G6">
-        <v>0.3637609365775122</v>
+        <v>0.3707229844828139</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -535,22 +535,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1081</v>
+        <v>43163</v>
       </c>
       <c r="C7">
-        <v>0.01627180801674751</v>
+        <v>0.05670198295619715</v>
       </c>
       <c r="D7">
         <v>1E-05</v>
       </c>
       <c r="E7">
-        <v>8.254818249627421E-07</v>
+        <v>9.998218155129855E-06</v>
       </c>
       <c r="F7">
-        <v>0.2458407878875732</v>
+        <v>32.39170980453491</v>
       </c>
       <c r="G7">
-        <v>0.3637098696435574</v>
+        <v>0.1780661659360412</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -558,45 +558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1833</v>
+        <v>81938</v>
       </c>
       <c r="C8">
-        <v>0.01627180812810845</v>
+        <v>0.05670147217535223</v>
       </c>
       <c r="D8">
         <v>1E-06</v>
       </c>
       <c r="E8">
-        <v>8.186380346278407E-07</v>
+        <v>9.899626198953622E-07</v>
       </c>
       <c r="F8">
-        <v>0.4039759635925293</v>
+        <v>61.82080674171448</v>
       </c>
       <c r="G8">
-        <v>0.3589032071798786</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>8140</v>
-      </c>
-      <c r="C9">
-        <v>0.01627182226664135</v>
-      </c>
-      <c r="D9">
-        <v>1E-07</v>
-      </c>
-      <c r="E9">
-        <v>5.02587231476308E-08</v>
-      </c>
-      <c r="F9">
-        <v>1.740154027938843</v>
-      </c>
-      <c r="G9">
-        <v>0.3589020280452133</v>
+        <v>0.1115551499826239</v>
       </c>
     </row>
   </sheetData>
